--- a/Coder_agreement_kappa.xlsx
+++ b/Coder_agreement_kappa.xlsx
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>89.6</v>
+        <v>89.6727272727273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.893862227368296</v>
+        <v>0.894604392662199</v>
       </c>
     </row>
     <row r="5">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>96.8</v>
+        <v>96.8727272727273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.967324144486692</v>
+        <v>0.968066725825364</v>
       </c>
     </row>
     <row r="8">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>96.5090909090909</v>
+        <v>96.5454545454545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.964374849453377</v>
+        <v>0.964745911470338</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>96.5818181818182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.965107759656309</v>
+        <v>0.965107477069471</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +518,7 @@
         <v>96.1090909090909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.960284140151297</v>
+        <v>0.960284124069562</v>
       </c>
     </row>
     <row r="12">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>93.3818181818182</v>
+        <v>93.6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.932484859341883</v>
+        <v>0.934709505864273</v>
       </c>
     </row>
     <row r="17">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>91.8181818181818</v>
+        <v>91.9272727272727</v>
       </c>
       <c r="C17" t="n">
-        <v>0.91651624974938</v>
+        <v>0.917628299489201</v>
       </c>
     </row>
   </sheetData>
